--- a/ANÁLISIS/ENTREGABLES 2018.xlsx
+++ b/ANÁLISIS/ENTREGABLES 2018.xlsx
@@ -5,20 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johana\Documents\PRACTICAS_SENA\Octubre3\CronogramaActividades-TECNOPARQUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hunter\ANÁLISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENTREGABLES POR FASE" sheetId="2" r:id="rId1"/>
     <sheet name="ESTADO DEL ARTE" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
-    <sheet name="ALCANCE Y ACTIVIDADES" sheetId="3" r:id="rId4"/>
+    <sheet name="ALCANCE Y ACTIVIDADES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'ALCANCE Y ACTIVIDADES'!$B:$XFD</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'ALCANCE Y ACTIVIDADES'!$B:$XFD</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ESTADO DEL ARTE'!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -1092,6 +1091,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1126,14 +1142,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1141,15 +1149,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1209,7 +1208,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0F1F0B-F6E1-43C8-A6EF-A32ADB1A66A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD0F1F0B-F6E1-43C8-A6EF-A32ADB1A66A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1258,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4CB4EC-D5A0-4391-B183-6C087522E423}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F4CB4EC-D5A0-4391-B183-6C087522E423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1307,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD9DAB-405A-4A52-96CC-1553232770E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BDD9DAB-405A-4A52-96CC-1553232770E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1362,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DECD86-8AFD-4E4D-8251-821348DB1ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04DECD86-8AFD-4E4D-8251-821348DB1ADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1412,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759F416A-669C-4DB7-917E-820BBA09BB99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{759F416A-669C-4DB7-917E-820BBA09BB99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1461,7 @@
         <xdr:cNvPr id="6" name="CuadroTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E05713-C1CD-459F-BE33-D368EBDB8D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4E05713-C1CD-459F-BE33-D368EBDB8D8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1568,7 @@
         <xdr:cNvPr id="7" name="CuadroTexto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B84BE0-D5E1-491E-9E23-3B38291E42CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8B84BE0-D5E1-491E-9E23-3B38291E42CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1675,7 @@
         <xdr:cNvPr id="8" name="CuadroTexto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8114E938-8FE8-4005-9A71-570E8A0531FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8114E938-8FE8-4005-9A71-570E8A0531FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1787,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCE539E-802B-4BDC-9700-751BF2DCC024}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BCE539E-802B-4BDC-9700-751BF2DCC024}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1836,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D2D060-736E-4455-B4B1-F47BBF9DC630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D2D060-736E-4455-B4B1-F47BBF9DC630}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1886,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565FFB63-709C-4B1D-8F6B-426BE4322B93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{565FFB63-709C-4B1D-8F6B-426BE4322B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1993,7 @@
         <xdr:cNvPr id="6" name="CuadroTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9AA3D9-B42C-4234-BA7E-6B8C7786B79A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F9AA3D9-B42C-4234-BA7E-6B8C7786B79A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2100,7 @@
         <xdr:cNvPr id="7" name="CuadroTexto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F43B162-E516-4B25-BDBB-7D4FE30526B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F43B162-E516-4B25-BDBB-7D4FE30526B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3415,26 +3414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BD29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
@@ -3454,15 +3441,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:56" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
@@ -3470,14 +3457,14 @@
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="2:56" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="78" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="64" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="51"/>
@@ -3554,10 +3541,10 @@
       <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="31" t="s">
         <v>56</v>
       </c>
@@ -3719,10 +3706,10 @@
       <c r="B4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="39" t="s">
         <v>70</v>
       </c>
@@ -3789,10 +3776,10 @@
       <c r="B5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="40" t="s">
         <v>70</v>
       </c>
@@ -3859,10 +3846,10 @@
       <c r="B6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="41" t="s">
         <v>70</v>
       </c>
@@ -3929,10 +3916,10 @@
       <c r="B7" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="40" t="s">
         <v>71</v>
       </c>
@@ -3999,10 +3986,10 @@
       <c r="B8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="41" t="s">
         <v>79</v>
       </c>
@@ -4069,10 +4056,10 @@
       <c r="B9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="41" t="s">
         <v>79</v>
       </c>
@@ -4139,10 +4126,10 @@
       <c r="B10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="42" t="s">
         <v>91</v>
       </c>
@@ -4209,10 +4196,10 @@
       <c r="B11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="42" t="s">
         <v>92</v>
       </c>
@@ -4349,10 +4336,10 @@
       <c r="B13" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="24" t="s">
         <v>94</v>
       </c>
@@ -4419,10 +4406,10 @@
       <c r="B14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="42" t="s">
         <v>94</v>
       </c>
@@ -4489,10 +4476,10 @@
       <c r="B15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="42" t="s">
         <v>94</v>
       </c>
@@ -4559,10 +4546,10 @@
       <c r="B16" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="46" t="s">
         <v>95</v>
       </c>
@@ -4629,10 +4616,10 @@
       <c r="B17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="40" t="s">
         <v>96</v>
       </c>
@@ -4699,10 +4686,10 @@
       <c r="B18" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="42" t="s">
         <v>100</v>
       </c>
@@ -4769,10 +4756,10 @@
       <c r="B19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="40" t="s">
         <v>97</v>
       </c>
@@ -4839,10 +4826,10 @@
       <c r="B20" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="40" t="s">
         <v>98</v>
       </c>
@@ -4909,10 +4896,10 @@
       <c r="B21" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="18" t="s">
         <v>99</v>
       </c>
@@ -4979,10 +4966,10 @@
       <c r="B22" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="18" t="s">
         <v>99</v>
       </c>
@@ -5104,23 +5091,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="33">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -5137,6 +5107,23 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:BD22">
     <cfRule type="expression" dxfId="0" priority="1">
